--- a/Wekelijkse Planning.xlsx
+++ b/Wekelijkse Planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jazzy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jazzy\source\repos\AOM_GIT\Adviesopmaat.nl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E55DC0CC-625C-45B0-8F43-D09869B316A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94313713-89A9-4DFD-9E7D-45B19F54CE97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{744CDB25-7003-4DF1-87BA-0DA2807A4D35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744CDB25-7003-4DF1-87BA-0DA2807A4D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Wekelijkse planning" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Leerdoelen" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -593,7 +592,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="113">
   <si>
     <t>Taak</t>
   </si>
@@ -912,6 +911,45 @@
   </si>
   <si>
     <t>Bootstrap onderdelen</t>
+  </si>
+  <si>
+    <t>Tijd begroot</t>
+  </si>
+  <si>
+    <t>Tijd gerealiseerd</t>
+  </si>
+  <si>
+    <t>2 uur</t>
+  </si>
+  <si>
+    <t>3 uur</t>
+  </si>
+  <si>
+    <t>1 uur</t>
+  </si>
+  <si>
+    <t>Views aanmaken</t>
+  </si>
+  <si>
+    <t>Unit tests</t>
+  </si>
+  <si>
+    <t>Implementatie tests</t>
+  </si>
+  <si>
+    <t>Extra functionaliteiten toevoegen</t>
+  </si>
+  <si>
+    <t>HTML/CSS</t>
+  </si>
+  <si>
+    <t>2 reflecties toevoegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 uur </t>
+  </si>
+  <si>
+    <t>SQL-trigger bedenken</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1292,6 +1330,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1299,7 +1346,7 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1459,6 +1506,30 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1813,480 +1884,617 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5C946E-75C2-4CD3-A76F-3D84D954DC11}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="48" customWidth="1"/>
+    <col min="3" max="3" width="23" style="48" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5">
+    <row r="1" spans="1:10" ht="19.5">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="62"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="E4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="F4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="G4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="H4" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="I4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="21"/>
+      <c r="B5" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="65"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="B6" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="66"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="21"/>
+      <c r="B7" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="65"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="B8" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="66"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="I8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="65"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="24"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="I9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="66"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="23"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="25"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
-    </row>
-    <row r="15" spans="1:8" ht="19.5">
-      <c r="A15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="15" spans="1:10" ht="19.5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="H16" s="27"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="E18" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="F18" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="G18" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="H18" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="I18" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="23"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+    <row r="19" spans="1:10">
+      <c r="A19" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="65"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="E19" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="24"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="66"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="23"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="H20" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="J20" s="34"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="65"/>
+      <c r="D21" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="24"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="66"/>
+      <c r="D22" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="34"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="23"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="34"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="65"/>
       <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="24"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="34"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="23"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
+      <c r="H24" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="34"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="65"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="25"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="34"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="34"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="26"/>
-    </row>
-    <row r="29" spans="1:8" ht="19.5">
-      <c r="A29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+    </row>
+    <row r="29" spans="1:10" ht="19.5">
+      <c r="A29" s="4"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="J30" s="27"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="J31" s="27"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="E32" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="F32" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="G32" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="H32" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="40" t="s">
+      <c r="I32" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:10">
       <c r="A33" s="23"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="24"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="34"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="34"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="23"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="24"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="34"/>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="23"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="24"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="34"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="34"/>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="23"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="34"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="34"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H5:H12">
+  <conditionalFormatting sqref="J5:J12">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",H5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("x",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H26">
+  <conditionalFormatting sqref="J19:J26">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",H19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("x",J19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H40">
+  <conditionalFormatting sqref="J33:J40">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",H33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("x",J33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2294,7 +2502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A5280D-708A-4996-975B-5F380C4ADF03}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -2688,7 +2896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1658758-20E9-4BDB-A2F8-D9014FB4C4DA}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/Wekelijkse Planning.xlsx
+++ b/Wekelijkse Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jazzy\source\repos\AOM_GIT\Adviesopmaat.nl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94313713-89A9-4DFD-9E7D-45B19F54CE97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5997DD2-F161-4736-964D-59077366324E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744CDB25-7003-4DF1-87BA-0DA2807A4D35}"/>
   </bookViews>
@@ -592,7 +592,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="118">
   <si>
     <t>Taak</t>
   </si>
@@ -898,9 +898,6 @@
     <t>Triggerfunctie bedenken</t>
   </si>
   <si>
-    <t>Algoritmiek opdracht</t>
-  </si>
-  <si>
     <t>Documentatie</t>
   </si>
   <si>
@@ -950,6 +947,24 @@
   </si>
   <si>
     <t>SQL-trigger bedenken</t>
+  </si>
+  <si>
+    <t>Documentatie bijwerken</t>
+  </si>
+  <si>
+    <t>Afmaken taken weekend</t>
+  </si>
+  <si>
+    <t>Algoritmiek beschrijven</t>
+  </si>
+  <si>
+    <t>Code smells</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Reflecties toevoegen (3 stuks)</t>
   </si>
 </sst>
 </file>
@@ -1886,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5C946E-75C2-4CD3-A76F-3D84D954DC11}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1947,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>100</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>101</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>23</v>
@@ -1979,7 +1994,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="65"/>
       <c r="D5" s="21"/>
@@ -1990,96 +2005,83 @@
         <v>17</v>
       </c>
       <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="J5" s="21" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="66" t="s">
+      <c r="A6" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="65" t="s">
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21" t="s">
+      <c r="B8" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22" t="s">
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21" t="s">
-        <v>17</v>
-      </c>
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22" t="s">
-        <v>17</v>
-      </c>
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10">
@@ -2174,105 +2176,98 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="65" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="21" t="s">
-        <v>17</v>
-      </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="I19" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="66"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="22" t="s">
+      <c r="I20" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="22"/>
       <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="65"/>
-      <c r="D21" s="21" t="s">
-        <v>17</v>
-      </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="H21" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="66"/>
-      <c r="D22" s="22" t="s">
-        <v>17</v>
-      </c>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="H22" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="I22" s="22"/>
       <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="21"/>
-      <c r="E23" s="21" t="s">
-        <v>17</v>
-      </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
+      <c r="I23" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="66"/>
-      <c r="D24" s="22" t="s">
-        <v>17</v>
-      </c>
+      <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
@@ -2283,24 +2278,26 @@
       <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="65" t="s">
-        <v>102</v>
+      <c r="A25" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>101</v>
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="H25" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="25"/>
-      <c r="B26" s="67"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="67"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -2382,11 +2379,17 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="23"/>
-      <c r="B33" s="65"/>
+      <c r="A33" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="66" t="s">
+        <v>101</v>
+      </c>
       <c r="C33" s="65"/>
       <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
+      <c r="E33" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -2394,11 +2397,16 @@
       <c r="J33" s="21"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="24"/>
-      <c r="B34" s="66"/>
+      <c r="A34" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>101</v>
+      </c>
       <c r="C34" s="66"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+      <c r="E34" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
@@ -2406,10 +2414,16 @@
       <c r="J34" s="34"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="23"/>
-      <c r="B35" s="65"/>
+      <c r="A35" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>101</v>
+      </c>
       <c r="C35" s="65"/>
-      <c r="D35" s="21"/>
+      <c r="D35" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -2418,10 +2432,16 @@
       <c r="J35" s="21"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="24"/>
-      <c r="B36" s="66"/>
+      <c r="A36" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="66" t="s">
+        <v>101</v>
+      </c>
       <c r="C36" s="66"/>
-      <c r="D36" s="22"/>
+      <c r="D36" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
@@ -2430,10 +2450,16 @@
       <c r="J36" s="34"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="23"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="65" t="s">
+        <v>101</v>
+      </c>
       <c r="C37" s="65"/>
-      <c r="D37" s="21"/>
+      <c r="D37" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
@@ -2442,11 +2468,17 @@
       <c r="J37" s="21"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="24"/>
-      <c r="B38" s="66"/>
+      <c r="A38" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>101</v>
+      </c>
       <c r="C38" s="66"/>
       <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
+      <c r="E38" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
@@ -2502,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A5280D-708A-4996-975B-5F380C4ADF03}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2789,7 +2821,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -2798,7 +2830,7 @@
     </row>
     <row r="23" spans="1:7" ht="19.5">
       <c r="A23" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="45"/>
       <c r="C23" s="11"/>
@@ -2809,7 +2841,7 @@
     </row>
     <row r="24" spans="1:7" ht="19.5">
       <c r="A24" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="50" t="s">
@@ -2896,7 +2928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1658758-20E9-4BDB-A2F8-D9014FB4C4DA}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/Wekelijkse Planning.xlsx
+++ b/Wekelijkse Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jazzy\source\repos\AOM_GIT\Adviesopmaat.nl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5997DD2-F161-4736-964D-59077366324E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8914D02-9872-4CDA-9478-4077B9B49AB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744CDB25-7003-4DF1-87BA-0DA2807A4D35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{744CDB25-7003-4DF1-87BA-0DA2807A4D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Wekelijkse planning" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="118">
   <si>
     <t>Taak</t>
   </si>
@@ -1901,7 +1901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5C946E-75C2-4CD3-A76F-3D84D954DC11}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -2534,7 +2534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A5280D-708A-4996-975B-5F380C4ADF03}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -2928,8 +2928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1658758-20E9-4BDB-A2F8-D9014FB4C4DA}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3042,9 +3042,7 @@
       <c r="A15" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="58" t="s">
-        <v>42</v>
-      </c>
+      <c r="B15" s="57"/>
       <c r="C15" t="s">
         <v>55</v>
       </c>
